--- a/MakeoverMonday/Week15/MessiRonaldo.xlsx
+++ b/MakeoverMonday/Week15/MessiRonaldo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flor_\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flor_\Desktop\InfoVis\MakeoverMonday\Week15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7134919F-8B1B-4A65-8344-C1AC9C2A877C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1118A914-126D-46C2-A5E1-78368F11F90A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{1403C31B-2C0D-514A-96D9-EAACE6744DEF}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2:P18"/>
     </sheetView>
   </sheetViews>
@@ -558,7 +558,7 @@
     </row>
     <row r="2" spans="1:18" ht="17.399999999999999">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -567,57 +567,41 @@
         <v>34</v>
       </c>
       <c r="D2" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2">
-        <v>2996</v>
+        <v>2841</v>
       </c>
       <c r="G2" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="2">
-        <v>783</v>
-      </c>
-      <c r="K2">
-        <f>(C2+C4+C6+C8+C10+C12+C14+C16+C18)/(E2+E4+E6+E8+E10+E12+E14+E16+E18)</f>
-        <v>1.064724919093851</v>
-      </c>
-      <c r="L2">
-        <f>(D2+D4+D6+D8+D10+D12+D14+D16+D18)/(E2+E4+E6+E8+E10+E12+E14+E16+E18)</f>
-        <v>0.44660194174757284</v>
-      </c>
-      <c r="M2">
-        <f>(G2+G4+G6+G8+G10+G12+G14+G16+G18)/(I2+I4+I6+I8+I10+I12+I14+I16+I18)</f>
-        <v>0.90217391304347827</v>
-      </c>
-      <c r="N2">
-        <f>(H2+H4+H6+H8+H10+H12+H14+H16+H18)/(I2+I4+I6+I8+I10+I12+I14+I16+I18)</f>
-        <v>0.30434782608695654</v>
+        <v>985</v>
       </c>
       <c r="O2">
         <f>C2/E2</f>
-        <v>0.94444444444444442</v>
+        <v>0.97142857142857142</v>
       </c>
       <c r="P2">
         <f>D2/E2</f>
-        <v>0.33333333333333331</v>
+        <v>0.37142857142857144</v>
       </c>
       <c r="Q2">
         <f>G2/I2</f>
-        <v>0.6</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="R2">
         <f>H2/I2</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="17.399999999999999" hidden="1">
@@ -668,68 +652,68 @@
         <v>0.32673267326732675</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O19" si="0">C3/E3</f>
+        <f>C3/E3</f>
         <v>0.96296296296296291</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P19" si="1">D3/E3</f>
+        <f>D3/E3</f>
         <v>0.18518518518518517</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q18" si="2">G3/I3</f>
+        <f>G3/I3</f>
         <v>1.1538461538461537</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R19" si="3">H3/I3</f>
+        <f>H3/I3</f>
         <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.399999999999999">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2">
-        <v>2832</v>
+        <v>2862</v>
       </c>
       <c r="G4" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J4" s="2">
-        <v>810</v>
+        <v>1050</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
-        <v>1.088235294117647</v>
+        <f>C4/E4</f>
+        <v>0.93939393939393945</v>
       </c>
       <c r="P4">
-        <f t="shared" si="1"/>
-        <v>0.26470588235294118</v>
+        <f>D4/E4</f>
+        <v>0.63636363636363635</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="2"/>
-        <v>1.2222222222222223</v>
+        <f>G4/I4</f>
+        <v>0.92307692307692313</v>
       </c>
       <c r="R4">
-        <f t="shared" si="3"/>
-        <v>0.22222222222222221</v>
+        <f>H4/I4</f>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="17.399999999999999" hidden="1">
@@ -764,68 +748,68 @@
         <v>1200</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
+        <f>C5/E5</f>
         <v>0.86206896551724133</v>
       </c>
       <c r="P5">
-        <f t="shared" si="1"/>
+        <f>D5/E5</f>
         <v>0.20689655172413793</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="2"/>
+        <f>G5/I5</f>
         <v>0.92307692307692313</v>
       </c>
       <c r="R5">
-        <f t="shared" si="3"/>
+        <f>H5/I5</f>
         <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17.399999999999999">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2">
-        <v>2729</v>
+        <v>3270</v>
       </c>
       <c r="G6" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J6" s="2">
-        <v>630</v>
+        <v>990</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
-        <v>0.78787878787878785</v>
+        <f>C6/E6</f>
+        <v>1.3513513513513513</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
-        <v>0.48484848484848486</v>
+        <f>D6/E6</f>
+        <v>0.54054054054054057</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
-        <v>0.8571428571428571</v>
+        <f>G6/I6</f>
+        <v>1.2727272727272727</v>
       </c>
       <c r="R6">
-        <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
+        <f>H6/I6</f>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17.399999999999999" hidden="1">
@@ -860,68 +844,68 @@
         <v>1109</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
+        <f>C7/E7</f>
         <v>0.97222222222222221</v>
       </c>
       <c r="P7">
-        <f t="shared" si="1"/>
+        <f>D7/E7</f>
         <v>0.30555555555555558</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="2"/>
+        <f>G7/I7</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="R7">
-        <f t="shared" si="3"/>
+        <f>H7/I7</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17.399999999999999">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2">
-        <v>3375</v>
+        <v>2629</v>
       </c>
       <c r="G8" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H8" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I8" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J8" s="2">
-        <v>1145</v>
+        <v>827</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
-        <v>1.131578947368421</v>
+        <f>C8/E8</f>
+        <v>1.4375</v>
       </c>
       <c r="P8">
-        <f t="shared" si="1"/>
-        <v>0.55263157894736847</v>
+        <f>D8/E8</f>
+        <v>0.4375</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>0.76923076923076927</v>
+        <f>G8/I8</f>
+        <v>0.72727272727272729</v>
       </c>
       <c r="R8">
-        <f t="shared" si="3"/>
-        <v>0.46153846153846156</v>
+        <f>H8/I8</f>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17.399999999999999" hidden="1">
@@ -956,19 +940,19 @@
         <v>1064</v>
       </c>
       <c r="O9">
-        <f t="shared" si="0"/>
+        <f>C9/E9</f>
         <v>1.3714285714285714</v>
       </c>
       <c r="P9">
-        <f t="shared" si="1"/>
+        <f>D9/E9</f>
         <v>0.45714285714285713</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="2"/>
+        <f>G9/I9</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="R9">
-        <f t="shared" si="3"/>
+        <f>H9/I9</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1004,19 +988,19 @@
         <v>630</v>
       </c>
       <c r="O10">
-        <f t="shared" si="0"/>
+        <f>C10/E10</f>
         <v>0.90322580645161288</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
+        <f>D10/E10</f>
         <v>0.38709677419354838</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
+        <f>G10/I10</f>
         <v>1.1428571428571428</v>
       </c>
       <c r="R10">
-        <f t="shared" si="3"/>
+        <f>H10/I10</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -1052,68 +1036,68 @@
         <v>991</v>
       </c>
       <c r="O11">
-        <f t="shared" si="0"/>
+        <f>C11/E11</f>
         <v>1.0333333333333334</v>
       </c>
       <c r="P11">
-        <f t="shared" si="1"/>
+        <f>D11/E11</f>
         <v>0.36666666666666664</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
+        <f>G11/I11</f>
         <v>1.5454545454545454</v>
       </c>
       <c r="R11">
-        <f t="shared" si="3"/>
+        <f>H11/I11</f>
         <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="17.399999999999999">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2">
-        <v>2629</v>
+        <v>3375</v>
       </c>
       <c r="G12" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I12" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J12" s="2">
-        <v>827</v>
+        <v>1145</v>
       </c>
       <c r="O12">
-        <f t="shared" si="0"/>
-        <v>1.4375</v>
+        <f>C12/E12</f>
+        <v>1.131578947368421</v>
       </c>
       <c r="P12">
-        <f t="shared" si="1"/>
-        <v>0.4375</v>
+        <f>D12/E12</f>
+        <v>0.55263157894736847</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
-        <v>0.72727272727272729</v>
+        <f>G12/I12</f>
+        <v>0.76923076923076927</v>
       </c>
       <c r="R12">
-        <f t="shared" si="3"/>
-        <v>0.27272727272727271</v>
+        <f>H12/I12</f>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="17.399999999999999" hidden="1">
@@ -1148,68 +1132,68 @@
         <v>1080</v>
       </c>
       <c r="O13">
-        <f t="shared" si="0"/>
+        <f>C13/E13</f>
         <v>1</v>
       </c>
       <c r="P13">
-        <f t="shared" si="1"/>
+        <f>D13/E13</f>
         <v>0.3235294117647059</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f>G13/I13</f>
         <v>1</v>
       </c>
       <c r="R13">
-        <f t="shared" si="3"/>
+        <f>H13/I13</f>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="17.399999999999999">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2">
-        <v>3270</v>
+        <v>2729</v>
       </c>
       <c r="G14" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H14" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J14" s="2">
-        <v>990</v>
+        <v>630</v>
       </c>
       <c r="O14">
-        <f t="shared" si="0"/>
-        <v>1.3513513513513513</v>
+        <f>C14/E14</f>
+        <v>0.78787878787878785</v>
       </c>
       <c r="P14">
-        <f t="shared" si="1"/>
-        <v>0.54054054054054057</v>
+        <f>D14/E14</f>
+        <v>0.48484848484848486</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
-        <v>1.2727272727272727</v>
+        <f>G14/I14</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="R14">
-        <f t="shared" si="3"/>
-        <v>0.81818181818181823</v>
+        <f>H14/I14</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="17.399999999999999" hidden="1">
@@ -1244,68 +1228,68 @@
         <v>930</v>
       </c>
       <c r="O15">
-        <f t="shared" si="0"/>
+        <f>C15/E15</f>
         <v>1.2105263157894737</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
+        <f>D15/E15</f>
         <v>0.34210526315789475</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
+        <f>G15/I15</f>
         <v>1</v>
       </c>
       <c r="R15">
-        <f t="shared" si="3"/>
+        <f>H15/I15</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="17.399999999999999">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2">
-        <v>2862</v>
+        <v>2832</v>
       </c>
       <c r="G16" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J16" s="2">
-        <v>1050</v>
+        <v>810</v>
       </c>
       <c r="O16">
-        <f t="shared" si="0"/>
-        <v>0.93939393939393945</v>
+        <f>C16/E16</f>
+        <v>1.088235294117647</v>
       </c>
       <c r="P16">
-        <f t="shared" si="1"/>
-        <v>0.63636363636363635</v>
+        <f>D16/E16</f>
+        <v>0.26470588235294118</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="2"/>
-        <v>0.92307692307692313</v>
+        <f>G16/I16</f>
+        <v>1.2222222222222223</v>
       </c>
       <c r="R16">
-        <f t="shared" si="3"/>
-        <v>0.30769230769230771</v>
+        <f>H16/I16</f>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="17.399999999999999" hidden="1">
@@ -1340,25 +1324,25 @@
         <v>1018</v>
       </c>
       <c r="O17">
-        <f t="shared" si="0"/>
+        <f>C17/E17</f>
         <v>1.1764705882352942</v>
       </c>
       <c r="P17">
-        <f t="shared" si="1"/>
+        <f>D17/E17</f>
         <v>0.38235294117647056</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
+        <f>G17/I17</f>
         <v>0.5</v>
       </c>
       <c r="R17">
-        <f t="shared" si="3"/>
+        <f>H17/I17</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="17.399999999999999">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
@@ -1367,41 +1351,57 @@
         <v>34</v>
       </c>
       <c r="D18" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2">
-        <v>2841</v>
+        <v>2996</v>
       </c>
       <c r="G18" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J18" s="2">
-        <v>985</v>
+        <v>783</v>
+      </c>
+      <c r="K18">
+        <f>(C18+C20+C22+C24+C26+C28+C30+C32+C34)/(E18+E20+E22+E24+E26+E28+E30+E32+E34)</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="L18">
+        <f>(D18+D20+D22+D24+D26+D28+D30+D32+D34)/(E18+E20+E22+E24+E26+E28+E30+E32+E34)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M18">
+        <f>(G18+G20+G22+G24+G26+G28+G30+G32+G34)/(I18+I20+I22+I24+I26+I28+I30+I32+I34)</f>
+        <v>0.6</v>
+      </c>
+      <c r="N18">
+        <f>(H18+H20+H22+H24+H26+H28+H30+H32+H34)/(I18+I20+I22+I24+I26+I28+I30+I32+I34)</f>
+        <v>0.2</v>
       </c>
       <c r="O18">
-        <f t="shared" si="0"/>
-        <v>0.97142857142857142</v>
+        <f>C18/E18</f>
+        <v>0.94444444444444442</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
-        <v>0.37142857142857144</v>
+        <f>D18/E18</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="2"/>
-        <v>0.72727272727272729</v>
+        <f>G18/I18</f>
+        <v>0.6</v>
       </c>
       <c r="R18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>H18/I18</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="17.399999999999999" hidden="1">
@@ -1436,11 +1436,11 @@
         <v>450</v>
       </c>
       <c r="O19">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O3:O19" si="0">C19/E19</f>
         <v>0.89655172413793105</v>
       </c>
       <c r="P19">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="P3:P19" si="1">D19/E19</f>
         <v>0.37931034482758619</v>
       </c>
       <c r="Q19">
@@ -1448,7 +1448,7 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="R19">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="R3:R19" si="2">H19/I19</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1459,6 +1459,9 @@
         <filter val="Messi"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R18">
+      <sortCondition ref="A1:A19"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
